--- a/output/ejecucion_1/gridsearch_results/base1/b1_ci_results_gs_rf_s.xlsx
+++ b/output/ejecucion_1/gridsearch_results/base1/b1_ci_results_gs_rf_s.xlsx
@@ -561,16 +561,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>252.5514896869659</v>
+        <v>172.0013572692871</v>
       </c>
       <c r="C2">
-        <v>100.6286445829538</v>
+        <v>60.86019637923512</v>
       </c>
       <c r="D2">
-        <v>4.635862445831298</v>
+        <v>1.982184219360352</v>
       </c>
       <c r="E2">
-        <v>2.092020185077576</v>
+        <v>3.05625336877818</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -614,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>517.048750925064</v>
+        <v>458.8654263019562</v>
       </c>
       <c r="C3">
-        <v>171.3934190455386</v>
+        <v>142.3697241792931</v>
       </c>
       <c r="D3">
-        <v>8.173996067047119</v>
+        <v>4.44204683303833</v>
       </c>
       <c r="E3">
-        <v>1.248897859320773</v>
+        <v>1.941639971233113</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -667,16 +667,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1251.194012928009</v>
+        <v>986.6406661510467</v>
       </c>
       <c r="C4">
-        <v>1.994784055877643</v>
+        <v>152.3429324197695</v>
       </c>
       <c r="D4">
-        <v>5.413500308990479</v>
+        <v>7.753339338302612</v>
       </c>
       <c r="E4">
-        <v>2.352880617030431</v>
+        <v>0.5416233107815548</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -720,16 +720,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>472.8436022281647</v>
+        <v>428.5647017478943</v>
       </c>
       <c r="C5">
-        <v>2.988050734645757</v>
+        <v>2.663015539081247</v>
       </c>
       <c r="D5">
-        <v>6.479698896408081</v>
+        <v>6.445478677749634</v>
       </c>
       <c r="E5">
-        <v>2.376984876136373</v>
+        <v>0.5027006889482671</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -773,16 +773,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>910.0153893947602</v>
+        <v>848.4674672603608</v>
       </c>
       <c r="C6">
-        <v>5.480252107603828</v>
+        <v>1.775739370772414</v>
       </c>
       <c r="D6">
-        <v>6.586109590530396</v>
+        <v>6.564799785614014</v>
       </c>
       <c r="E6">
-        <v>1.235924072771326</v>
+        <v>0.5584758047761286</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -826,16 +826,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1828.012991523743</v>
+        <v>1682.078295707703</v>
       </c>
       <c r="C7">
-        <v>31.61757701120654</v>
+        <v>3.637935349281217</v>
       </c>
       <c r="D7">
-        <v>10.10688743591309</v>
+        <v>7.910986375808716</v>
       </c>
       <c r="E7">
-        <v>0.9901154047030926</v>
+        <v>0.3462165518427878</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -879,16 +879,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>616.6455916881562</v>
+        <v>569.8244668006897</v>
       </c>
       <c r="C8">
-        <v>9.895790502179981</v>
+        <v>5.615792983125055</v>
       </c>
       <c r="D8">
-        <v>7.56142406463623</v>
+        <v>6.289184713363648</v>
       </c>
       <c r="E8">
-        <v>1.103476943408697</v>
+        <v>0.5953469587908193</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -932,16 +932,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1297.21243481636</v>
+        <v>1108.669444561005</v>
       </c>
       <c r="C9">
-        <v>17.19743296653333</v>
+        <v>2.805161702153816</v>
       </c>
       <c r="D9">
-        <v>10.47826023101807</v>
+        <v>7.41806640625</v>
       </c>
       <c r="E9">
-        <v>0.5924745310066424</v>
+        <v>0.5370743424808685</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -985,16 +985,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2601.664869737625</v>
+        <v>2203.644894075393</v>
       </c>
       <c r="C10">
-        <v>6.517116319882533</v>
+        <v>9.515119678493532</v>
       </c>
       <c r="D10">
-        <v>10.60794420242309</v>
+        <v>8.372460746765137</v>
       </c>
       <c r="E10">
-        <v>0.366771168596168</v>
+        <v>0.445031818255665</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>484.6666226863861</v>
+        <v>410.3941568851471</v>
       </c>
       <c r="C11">
-        <v>7.708128617211763</v>
+        <v>6.297791436250154</v>
       </c>
       <c r="D11">
-        <v>10.26144857406616</v>
+        <v>7.739963722229004</v>
       </c>
       <c r="E11">
-        <v>0.1796691874828353</v>
+        <v>0.5563292532764453</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -1091,16 +1091,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>944.4578938007355</v>
+        <v>799.442493391037</v>
       </c>
       <c r="C12">
-        <v>9.425376376880138</v>
+        <v>14.77971849925392</v>
       </c>
       <c r="D12">
-        <v>10.57406468391418</v>
+        <v>8.079037237167359</v>
       </c>
       <c r="E12">
-        <v>0.08738613144968482</v>
+        <v>0.4333297754536677</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -1144,16 +1144,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1881.639608621597</v>
+        <v>1587.551083898544</v>
       </c>
       <c r="C13">
-        <v>27.61978749037073</v>
+        <v>21.70231092178417</v>
       </c>
       <c r="D13">
-        <v>10.4597146987915</v>
+        <v>8.223393535614013</v>
       </c>
       <c r="E13">
-        <v>0.7013298799002162</v>
+        <v>0.7165630616114224</v>
       </c>
       <c r="F13">
         <v>20</v>
@@ -1197,16 +1197,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>700.8757410526275</v>
+        <v>591.9313493728638</v>
       </c>
       <c r="C14">
-        <v>12.75209854689102</v>
+        <v>11.18070723316746</v>
       </c>
       <c r="D14">
-        <v>9.469863891601562</v>
+        <v>8.023996877670289</v>
       </c>
       <c r="E14">
-        <v>0.4629972819201934</v>
+        <v>0.4121866517894509</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -1250,16 +1250,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1341.772844266892</v>
+        <v>1167.719575881958</v>
       </c>
       <c r="C15">
-        <v>22.3413858355164</v>
+        <v>16.98554940408184</v>
       </c>
       <c r="D15">
-        <v>10.01835432052612</v>
+        <v>7.799665212631226</v>
       </c>
       <c r="E15">
-        <v>0.4557292432024208</v>
+        <v>0.5862128792063116</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -1303,16 +1303,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2709.026486873627</v>
+        <v>2280.842783212662</v>
       </c>
       <c r="C16">
-        <v>37.53204099207117</v>
+        <v>31.65679145237837</v>
       </c>
       <c r="D16">
-        <v>10.44588108062744</v>
+        <v>8.221553230285645</v>
       </c>
       <c r="E16">
-        <v>0.436926130685689</v>
+        <v>0.5925313107772046</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -1356,16 +1356,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>910.7317899227143</v>
+        <v>753.746323299408</v>
       </c>
       <c r="C17">
-        <v>17.4526878158014</v>
+        <v>19.70052129207456</v>
       </c>
       <c r="D17">
-        <v>10.30427598953247</v>
+        <v>8.324148750305175</v>
       </c>
       <c r="E17">
-        <v>0.1098604450918352</v>
+        <v>0.7320789850106061</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -1409,16 +1409,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1800.433502864838</v>
+        <v>1529.178658294678</v>
       </c>
       <c r="C18">
-        <v>21.39837196182039</v>
+        <v>11.68163558137355</v>
       </c>
       <c r="D18">
-        <v>10.28023176193237</v>
+        <v>7.911117362976074</v>
       </c>
       <c r="E18">
-        <v>0.6965339836185716</v>
+        <v>0.6596235920012946</v>
       </c>
       <c r="F18">
         <v>20</v>
@@ -1462,16 +1462,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3480.630739688873</v>
+        <v>3053.358260679245</v>
       </c>
       <c r="C19">
-        <v>81.8023060368141</v>
+        <v>42.70827660953847</v>
       </c>
       <c r="D19">
-        <v>9.74433650970459</v>
+        <v>8.505347776412965</v>
       </c>
       <c r="E19">
-        <v>0.1248632611883057</v>
+        <v>0.5510282715553173</v>
       </c>
       <c r="F19">
         <v>20</v>
@@ -1515,16 +1515,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>504.6153671741486</v>
+        <v>430.0886552333832</v>
       </c>
       <c r="C20">
-        <v>9.284739104122679</v>
+        <v>8.157954851886419</v>
       </c>
       <c r="D20">
-        <v>9.562750625610352</v>
+        <v>7.850925874710083</v>
       </c>
       <c r="E20">
-        <v>0.6062867006191894</v>
+        <v>0.4662844979405372</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -1568,16 +1568,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>948.9211188316345</v>
+        <v>850.224909734726</v>
       </c>
       <c r="C21">
-        <v>36.77596846162306</v>
+        <v>15.77346689464976</v>
       </c>
       <c r="D21">
-        <v>9.306156396865845</v>
+        <v>7.675096750259399</v>
       </c>
       <c r="E21">
-        <v>0.4372394641267703</v>
+        <v>0.5928059403103265</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -1621,16 +1621,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1763.038982057572</v>
+        <v>1655.931116008759</v>
       </c>
       <c r="C22">
-        <v>39.43243528312492</v>
+        <v>34.63639089138093</v>
       </c>
       <c r="D22">
-        <v>10.31141533851624</v>
+        <v>8.676648759841919</v>
       </c>
       <c r="E22">
-        <v>0.2871988152914836</v>
+        <v>0.1655224430693714</v>
       </c>
       <c r="F22">
         <v>30</v>
@@ -1674,16 +1674,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>654.5021337985993</v>
+        <v>616.8991370677948</v>
       </c>
       <c r="C23">
-        <v>15.56113376538693</v>
+        <v>13.83232493307794</v>
       </c>
       <c r="D23">
-        <v>9.092448949813843</v>
+        <v>7.785571622848511</v>
       </c>
       <c r="E23">
-        <v>0.2939849712172695</v>
+        <v>0.3129624034840556</v>
       </c>
       <c r="F23">
         <v>30</v>
@@ -1727,16 +1727,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1294.522508478165</v>
+        <v>1207.195433235168</v>
       </c>
       <c r="C24">
-        <v>27.89359187239818</v>
+        <v>27.17502444467787</v>
       </c>
       <c r="D24">
-        <v>9.045925426483155</v>
+        <v>8.023911476135254</v>
       </c>
       <c r="E24">
-        <v>0.4703473038806039</v>
+        <v>0.3867105368121521</v>
       </c>
       <c r="F24">
         <v>30</v>
@@ -1780,16 +1780,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2546.111859989166</v>
+        <v>2414.614165449143</v>
       </c>
       <c r="C25">
-        <v>52.82574378222011</v>
+        <v>50.81265128962131</v>
       </c>
       <c r="D25">
-        <v>9.825187110900879</v>
+        <v>8.284267520904541</v>
       </c>
       <c r="E25">
-        <v>0.4138689850652454</v>
+        <v>0.6843681620468043</v>
       </c>
       <c r="F25">
         <v>30</v>
@@ -1833,16 +1833,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>845.6430512428284</v>
+        <v>808.9159862995148</v>
       </c>
       <c r="C26">
-        <v>19.1862618101069</v>
+        <v>20.54685148138264</v>
       </c>
       <c r="D26">
-        <v>9.277035474777222</v>
+        <v>8.050402688980103</v>
       </c>
       <c r="E26">
-        <v>0.3485399794821461</v>
+        <v>0.5464293443427336</v>
       </c>
       <c r="F26">
         <v>30</v>
@@ -1886,16 +1886,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1680.338121891022</v>
+        <v>1578.723355960846</v>
       </c>
       <c r="C27">
-        <v>34.02432336124787</v>
+        <v>33.44296924784374</v>
       </c>
       <c r="D27">
-        <v>8.150111722946168</v>
+        <v>7.555787897109985</v>
       </c>
       <c r="E27">
-        <v>0.9348380823171929</v>
+        <v>0.9755899248595341</v>
       </c>
       <c r="F27">
         <v>30</v>
@@ -1939,16 +1939,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2345.339533138275</v>
+        <v>2109.100126647949</v>
       </c>
       <c r="C28">
-        <v>329.8507036008552</v>
+        <v>337.641018741166</v>
       </c>
       <c r="D28">
-        <v>3.126668214797974</v>
+        <v>2.320011043548584</v>
       </c>
       <c r="E28">
-        <v>1.847691832341918</v>
+        <v>1.514880365254806</v>
       </c>
       <c r="F28">
         <v>30</v>
